--- a/Calcs.xlsx
+++ b/Calcs.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\RaspberryPi\vplotter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amallasserysasidhara\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{EAE7D06E-771B-45B3-8BBB-6E3FFE0EF67B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" xr2:uid="{043BC530-64DC-49E5-8508-CB76E300A97A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14085"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>B</t>
   </si>
@@ -40,13 +39,49 @@
   </si>
   <si>
     <t>Right</t>
+  </si>
+  <si>
+    <t>Calculated</t>
+  </si>
+  <si>
+    <t>Adjusted</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lenPerStep </t>
+  </si>
+  <si>
+    <t xml:space="preserve">stepPerRot </t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Adj Left</t>
+  </si>
+  <si>
+    <t>Adj Right</t>
+  </si>
+  <si>
+    <t>Stpes Left</t>
+  </si>
+  <si>
+    <t>Steps Right</t>
+  </si>
+  <si>
+    <t>without rounding</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,16 +89,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF24292E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -71,12 +126,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -92,6 +187,36 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A6:I26" totalsRowShown="0">
+  <autoFilter ref="A6:I26"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="X"/>
+    <tableColumn id="2" name="Y"/>
+    <tableColumn id="3" name="Column1"/>
+    <tableColumn id="4" name="Left">
+      <calculatedColumnFormula>ROUND(SQRT(A7^2+ B7^2),0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Right">
+      <calculatedColumnFormula>ROUND(SQRT(($B$4-A7)^2+ B7^2),0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Adj Left">
+      <calculatedColumnFormula>IF(ISNUMBER(D7),D7,0)-IF(ISNUMBER(D6),D6,0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="Adj Right">
+      <calculatedColumnFormula>IF(ISNUMBER(E7),E7,0)-IF(ISNUMBER(E6),E6,0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="Stpes Left">
+      <calculatedColumnFormula>F7*$B$3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="Steps Right">
+      <calculatedColumnFormula>G7*$B$3</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -390,343 +515,1025 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70DE598-9B2A-40FD-A8D2-E07B9F2049FE}">
-  <dimension ref="A1:E21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E9" sqref="E9:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="6"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <f>ROUND(B1/B2,5)</f>
+        <v>25.924050000000001</v>
+      </c>
+      <c r="C3">
+        <v>25.924050632911392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B4">
         <v>350</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>100</v>
-      </c>
-      <c r="B3">
-        <v>150</v>
-      </c>
-      <c r="D3">
-        <f>SQRT(A3^2+ B3^2)</f>
-        <v>180.27756377319946</v>
-      </c>
-      <c r="E3">
-        <f>SQRT(($B$1-A3)^2+ B3^2)</f>
-        <v>291.54759474226501</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>100</v>
-      </c>
-      <c r="B4">
-        <v>152</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D21" si="0">SQRT(A4^2+ B4^2)</f>
-        <v>181.94504664870655</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E21" si="1">SQRT(($B$1-A4)^2+ B4^2)</f>
-        <v>292.58161254596979</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>100</v>
-      </c>
-      <c r="B5">
-        <v>154</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>183.61917111238685</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>293.62561196189955</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>100</v>
-      </c>
-      <c r="B6">
-        <v>156</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>185.29975715040752</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>294.67948690059848</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>100</v>
       </c>
       <c r="B7">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>201.55644370746373</v>
+        <f>ROUND(SQRT(A7^2+ B7^2),0)</f>
+        <v>128</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
-        <v>305.16389039334257</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <f>ROUND(SQRT(($B$4-A7)^2+ B7^2),0)</f>
+        <v>262</v>
+      </c>
+      <c r="F7">
+        <f>IF(ISNUMBER(D7),D7,0)-IF(ISNUMBER(D6),D6,0)</f>
+        <v>128</v>
+      </c>
+      <c r="G7">
+        <f>IF(ISNUMBER(E7),E7,0)-IF(ISNUMBER(E6),E6,0)</f>
+        <v>262</v>
+      </c>
+      <c r="H7">
+        <f>F7*$B$3</f>
+        <v>3318.2784000000001</v>
+      </c>
+      <c r="I7">
+        <f>G7*$B$3</f>
+        <v>6792.1010999999999</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>100</v>
       </c>
       <c r="B8">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>364.0054944640259</v>
+        <f>ROUND(SQRT(A8^2+ B8^2),0)</f>
+        <v>180</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
-        <v>430.11626335213134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <f>ROUND(SQRT(($B$4-A8)^2+ B8^2),0)</f>
+        <v>292</v>
+      </c>
+      <c r="F8">
+        <f>IF(ISNUMBER(D8),D8,0)-IF(ISNUMBER(D7),D7,0)</f>
+        <v>52</v>
+      </c>
+      <c r="G8">
+        <f>IF(ISNUMBER(E8),E8,0)-IF(ISNUMBER(E7),E7,0)</f>
+        <v>30</v>
+      </c>
+      <c r="H8">
+        <f>F8*$B$3</f>
+        <v>1348.0506</v>
+      </c>
+      <c r="I8">
+        <f>G8*$B$3</f>
+        <v>777.72149999999999</v>
+      </c>
+      <c r="K8">
+        <v>4673.5246912343355</v>
+      </c>
+      <c r="L8">
+        <v>7558.0946080020094</v>
+      </c>
+      <c r="M8">
+        <f>H8-K8</f>
+        <v>-3325.4740912343354</v>
+      </c>
+      <c r="N8" s="6">
+        <f>I8-L8</f>
+        <v>-6780.3731080020098</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>100</v>
       </c>
       <c r="B9">
+        <v>152</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:D26" si="0">ROUND(SQRT(A9^2+ B9^2),0)</f>
+        <v>182</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:E26" si="1">ROUND(SQRT(($B$4-A9)^2+ B9^2),0)</f>
+        <v>293</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:F26" si="2">IF(ISNUMBER(D9),D9,0)-IF(ISNUMBER(D8),D8,0)</f>
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9:G26" si="3">IF(ISNUMBER(E9),E9,0)-IF(ISNUMBER(E8),E8,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ref="H9:H26" si="4">F9*$B$3</f>
+        <v>51.848100000000002</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ref="I9:I26" si="5">G9*$B$3</f>
+        <v>25.924050000000001</v>
+      </c>
+      <c r="K9">
+        <v>43.2279104941585</v>
+      </c>
+      <c r="L9">
+        <v>26.805929898574675</v>
+      </c>
+      <c r="M9">
+        <f t="shared" ref="M9:N26" si="6">H9-K9</f>
+        <v>8.6201895058415019</v>
+      </c>
+      <c r="N9" s="6">
+        <f t="shared" si="6"/>
+        <v>-0.88187989857467386</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>100</v>
+      </c>
+      <c r="B10">
+        <v>154</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>184</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>294</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>51.848100000000002</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="5"/>
+        <v>25.924050000000001</v>
+      </c>
+      <c r="K10">
+        <v>43.400087362243731</v>
+      </c>
+      <c r="L10">
+        <v>27.06469371929305</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="6"/>
+        <v>8.4480126377562712</v>
+      </c>
+      <c r="N10" s="6">
+        <f t="shared" si="6"/>
+        <v>-1.140643719293049</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <v>156</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>295</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>25.924050000000001</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="5"/>
+        <v>25.924050000000001</v>
+      </c>
+      <c r="K11">
+        <v>43.567597542611637</v>
+      </c>
+      <c r="L11">
+        <v>27.320707271587327</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="6"/>
+        <v>-17.643547542611635</v>
+      </c>
+      <c r="N11" s="6">
+        <f t="shared" si="6"/>
+        <v>-1.3966572715873262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>175</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>202</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>305</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>440.70885000000004</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="5"/>
+        <v>259.2405</v>
+      </c>
+      <c r="K12">
+        <v>421.43916542849524</v>
+      </c>
+      <c r="L12">
+        <v>271.79820700177089</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="6"/>
+        <v>19.269684571504797</v>
+      </c>
+      <c r="N12" s="6">
+        <f t="shared" si="6"/>
+        <v>-12.557707001770893</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>100</v>
+      </c>
+      <c r="B13">
+        <v>350</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>364</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>430</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="4"/>
+        <v>4199.6961000000001</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="5"/>
+        <v>3240.5062500000004</v>
+      </c>
+      <c r="K13">
+        <v>4211.3374170815105</v>
+      </c>
+      <c r="L13">
+        <v>3239.2716432860684</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="6"/>
+        <v>-11.641317081510351</v>
+      </c>
+      <c r="N13" s="6">
+        <f t="shared" si="6"/>
+        <v>1.234606713931953</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>100</v>
+      </c>
+      <c r="B14">
         <v>500</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>509.90195135927848</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>559.01699437494744</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>250</v>
-      </c>
-      <c r="B10">
-        <v>500</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>559.01699437494744</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>509.90195135927848</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>250</v>
-      </c>
-      <c r="B11">
-        <v>499</v>
-      </c>
-      <c r="D11">
-        <f t="shared" ref="D11" si="2">SQRT(A11^2+ B11^2)</f>
-        <v>558.12274635603228</v>
-      </c>
-      <c r="E11">
-        <f t="shared" ref="E11" si="3">SQRT(($B$1-A11)^2+ B11^2)</f>
-        <v>508.92140847089541</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>250</v>
-      </c>
-      <c r="B12">
-        <v>450</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>514.78150704935001</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>460.97722286464438</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>250</v>
-      </c>
-      <c r="B13">
-        <v>400</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>471.69905660283018</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
-        <v>412.31056256176606</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>250</v>
-      </c>
-      <c r="B14">
-        <v>350</v>
-      </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>430.11626335213134</v>
+        <v>510</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>364.0054944640259</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>129</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="4"/>
+        <v>3784.9113000000002</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="5"/>
+        <v>3344.2024500000002</v>
+      </c>
+      <c r="K14">
+        <v>3782.2271357149025</v>
+      </c>
+      <c r="L14">
+        <v>3341.6290776547771</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="6"/>
+        <v>2.6841642850977223</v>
+      </c>
+      <c r="N14" s="6">
+        <f t="shared" si="6"/>
+        <v>2.5733723452231061</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>250</v>
       </c>
       <c r="B15">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>390.51248379533274</v>
+        <v>559</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>316.22776601683796</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>-49</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="4"/>
+        <v>1270.27845</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="5"/>
+        <v>-1270.27845</v>
+      </c>
+      <c r="K15">
+        <v>1273.2608619758232</v>
+      </c>
+      <c r="L15">
+        <v>-1273.2608619758232</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="6"/>
+        <v>-2.9824119758231973</v>
+      </c>
+      <c r="N15" s="6">
+        <f t="shared" si="6"/>
+        <v>2.9824119758231973</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>250</v>
       </c>
       <c r="B16">
-        <v>250</v>
+        <v>499</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>353.55339059327378</v>
+        <v>558</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>269.2582403567252</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="4"/>
+        <v>-25.924050000000001</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="5"/>
+        <v>-25.924050000000001</v>
+      </c>
+      <c r="K16">
+        <v>-23.18253092073741</v>
+      </c>
+      <c r="L16">
+        <v>-25.41964348618389</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="6"/>
+        <v>-2.7415190792625914</v>
+      </c>
+      <c r="N16" s="6">
+        <f t="shared" si="6"/>
+        <v>-0.5044065138161109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>250</v>
       </c>
       <c r="B17">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>320.15621187164243</v>
+        <v>515</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>223.60679774997897</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>-43</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>-48</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="4"/>
+        <v>-1114.73415</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="5"/>
+        <v>-1244.3544000000002</v>
+      </c>
+      <c r="K17">
+        <v>-1123.5804822795606</v>
+      </c>
+      <c r="L17">
+        <v>-1242.9074952101535</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="6"/>
+        <v>8.8463322795605563</v>
+      </c>
+      <c r="N17" s="6">
+        <f t="shared" si="6"/>
+        <v>-1.4469047898467124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>250</v>
       </c>
       <c r="B18">
-        <v>175</v>
+        <v>400</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>305.16389039334257</v>
+        <v>472</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>201.55644370746373</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>-43</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>-49</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="4"/>
+        <v>-1114.73415</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="5"/>
+        <v>-1270.27845</v>
+      </c>
+      <c r="K18">
+        <v>-1116.8716267654761</v>
+      </c>
+      <c r="L18">
+        <v>-1261.6369658265162</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="6"/>
+        <v>2.1374767654760944</v>
+      </c>
+      <c r="N18" s="6">
+        <f t="shared" si="6"/>
+        <v>-8.6414841734838319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>250</v>
       </c>
       <c r="B19">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>291.54759474226501</v>
+        <v>430</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>180.27756377319946</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>-42</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>-48</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="4"/>
+        <v>-1088.8101000000001</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="5"/>
+        <v>-1244.3544000000002</v>
+      </c>
+      <c r="K19">
+        <v>-1077.9944376890028</v>
+      </c>
+      <c r="L19">
+        <v>-1252.2630311920486</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="6"/>
+        <v>-10.815662310997368</v>
+      </c>
+      <c r="N19" s="6">
+        <f t="shared" si="6"/>
+        <v>7.9086311920484604</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>250</v>
       </c>
       <c r="B20">
+        <v>300</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>391</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>316</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>-39</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>-48</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="4"/>
+        <v>-1011.03795</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="5"/>
+        <v>-1244.3544000000002</v>
+      </c>
+      <c r="K20">
+        <v>-1026.6903864851081</v>
+      </c>
+      <c r="L20">
+        <v>-1238.5922513903911</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="6"/>
+        <v>15.652436485108069</v>
+      </c>
+      <c r="N20" s="6">
+        <f t="shared" si="6"/>
+        <v>-5.7621486096090848</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>250</v>
+      </c>
+      <c r="B21">
+        <v>250</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>354</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>269</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>-37</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>-47</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="4"/>
+        <v>-959.18985000000009</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="5"/>
+        <v>-1218.4303500000001</v>
+      </c>
+      <c r="K21">
+        <v>-958.12940351666782</v>
+      </c>
+      <c r="L21">
+        <v>-1217.6403614165943</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="6"/>
+        <v>-1.0604464833322709</v>
+      </c>
+      <c r="N21" s="6">
+        <f t="shared" si="6"/>
+        <v>-0.78998858340582956</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>250</v>
+      </c>
+      <c r="B22">
+        <v>200</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>224</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>-34</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>-45</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="4"/>
+        <v>-881.41770000000008</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="5"/>
+        <v>-1166.5822500000002</v>
+      </c>
+      <c r="K22">
+        <v>-865.79015217596202</v>
+      </c>
+      <c r="L22">
+        <v>-1183.4703096027376</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="6"/>
+        <v>-15.627547824038061</v>
+      </c>
+      <c r="N22" s="6">
+        <f t="shared" si="6"/>
+        <v>16.888059602737485</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>250</v>
+      </c>
+      <c r="B23">
+        <v>175</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>305</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>202</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>-15</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>-22</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="4"/>
+        <v>-388.86075</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="5"/>
+        <v>-570.32910000000004</v>
+      </c>
+      <c r="K23">
+        <v>-388.66170110833048</v>
+      </c>
+      <c r="L23">
+        <v>-571.63449467178748</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="6"/>
+        <v>-0.19904889166951989</v>
+      </c>
+      <c r="N23" s="6">
+        <f t="shared" si="6"/>
+        <v>1.3053946717874396</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>250</v>
+      </c>
+      <c r="B24">
+        <v>150</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>292</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>-13</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>-22</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="4"/>
+        <v>-337.01265000000001</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="5"/>
+        <v>-570.32910000000004</v>
+      </c>
+      <c r="K24">
+        <v>-352.98953789122595</v>
+      </c>
+      <c r="L24">
+        <v>-551.63476082750913</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="6"/>
+        <v>15.976887891225942</v>
+      </c>
+      <c r="N24" s="6">
+        <f t="shared" si="6"/>
+        <v>-18.694339172490913</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>250</v>
+      </c>
+      <c r="B25">
         <v>100</v>
       </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>269.2582403567252</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="1"/>
-        <v>141.42135623730951</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>269</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>141</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>-23</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>-39</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="4"/>
+        <v>-596.25315000000001</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="5"/>
+        <v>-1011.03795</v>
+      </c>
+      <c r="K25">
+        <v>-577.83035166563957</v>
+      </c>
+      <c r="L25">
+        <v>-1007.3102915633243</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="6"/>
+        <v>-18.422798334360436</v>
+      </c>
+      <c r="N25" s="6">
+        <f t="shared" si="6"/>
+        <v>-3.7276584366757106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>100</v>
       </c>
-      <c r="B21">
+      <c r="B26">
         <v>150</v>
       </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>180.27756377319946</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
-        <v>291.54759474226501</v>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>292</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>-89</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>151</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="4"/>
+        <v>-2307.2404500000002</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="5"/>
+        <v>3914.5315500000002</v>
+      </c>
+      <c r="K26">
+        <v>-2306.7395651020342</v>
+      </c>
+      <c r="L26">
+        <v>3891.8802083309979</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="6"/>
+        <v>-0.50088489796598878</v>
+      </c>
+      <c r="N26" s="6">
+        <f t="shared" si="6"/>
+        <v>22.65134166900225</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="K6:L6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>